--- a/Documentation/Overview.xlsx
+++ b/Documentation/Overview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Overview</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>Modulator</t>
-  </si>
-  <si>
-    <t>CellX_Stimulator</t>
   </si>
   <si>
     <t>Teensy OBIS</t>
@@ -98,7 +95,19 @@
     <t>USB powered version with DB25 dedicated for connection to SSIM meter</t>
   </si>
   <si>
-    <t>LiTeensy-v1..4</t>
+    <t>CellX Stimulator</t>
+  </si>
+  <si>
+    <t>Clock Speed</t>
+  </si>
+  <si>
+    <t>16 MHz</t>
+  </si>
+  <si>
+    <t>LiTeensy-v4</t>
+  </si>
+  <si>
+    <t>LiTeensy-v1,3</t>
   </si>
 </sst>
 </file>
@@ -152,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -167,13 +176,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -488,7 +500,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="3" width="21.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="11.5703125" style="3" customWidth="1"/>
@@ -496,15 +509,15 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
@@ -513,134 +526,160 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H9" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3">
         <v>4</v>
       </c>
+      <c r="H11" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
